--- a/NYSCFileRecord/wwwroot/FileRecordExcel.xlsx
+++ b/NYSCFileRecord/wwwroot/FileRecordExcel.xlsx
@@ -6,13 +6,13 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="employee" sheetId="1" r:id="rId3"/>
+    <sheet name="File Record" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
   <si>
     <t xml:space="preserve">File Id</t>
   </si>
@@ -26,6 +26,27 @@
     <t xml:space="preserve">Description</t>
   </si>
   <si>
+    <t xml:space="preserve">Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken To</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returned From</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collecting Officer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recording Officer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date</t>
   </si>
   <si>
@@ -47,16 +68,67 @@
     <t xml:space="preserve">Test2 Description</t>
   </si>
   <si>
-    <t xml:space="preserve">88498595995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Edited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8849</t>
+    <t xml:space="preserve">LA/19A/045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Usman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel Leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08077578856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NYSC Mobilization FIle Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File Room 3, Shelf No 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Oscar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA/19A/0024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Jolayemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reposting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">080112244335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surulere LGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA/19A/0768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Joshua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disciplinary Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lekki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File Room 1, Shelf No 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs. Henry</t>
   </si>
   <si>
     <t xml:space="preserve">67877</t>
@@ -77,13 +149,85 @@
     <t xml:space="preserve">File 2 description</t>
   </si>
   <si>
-    <t xml:space="preserve">Jordan</t>
+    <t xml:space="preserve">LA/19B/0002</t>
   </si>
   <si>
     <t xml:space="preserve">Michael</t>
   </si>
   <si>
-    <t xml:space="preserve">jordan@gmail.com</t>
+    <t xml:space="preserve">State Coordinator's request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09011221332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eti-Osa 1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA/19B/0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Lolu George</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805467584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eti-Osa 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ikorou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File Room 2, Shelf No 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA/19A/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs. Agatha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08075475775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Kalu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unpaid Allowance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80785758574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eti-Osa 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File Room 2, Shelf No 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs. Shade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA/19A/1056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs Nancy Ogundele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8067674774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ikeja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File Room 4, Shelf No 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surulere</t>
   </si>
 </sst>
 </file>
@@ -150,21 +294,49 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2">
         <v>43590</v>
       </c>
     </row>
@@ -173,15 +345,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3">
         <v>43955</v>
       </c>
     </row>
@@ -190,15 +369,36 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4">
         <v>43978.77498825511</v>
       </c>
     </row>
@@ -207,15 +407,36 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5">
         <v>43978.846382127434</v>
       </c>
     </row>
@@ -224,15 +445,36 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6">
         <v>43978.98944704426</v>
       </c>
     </row>
@@ -241,15 +483,22 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
+        <v>41</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7">
         <v>-1</v>
       </c>
     </row>
@@ -258,15 +507,22 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
+        <v>44</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8">
         <v>-1</v>
       </c>
     </row>
@@ -275,15 +531,22 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
+        <v>41</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9">
         <v>-1</v>
       </c>
     </row>
@@ -292,15 +555,22 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
+        <v>44</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10">
         <v>-1</v>
       </c>
     </row>
@@ -309,16 +579,237 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11">
         <v>43987.32922186871</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>1014</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>1015</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>1016</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14">
+        <v>43988.016693845144</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>1017</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15">
+        <v>43988.01670012576</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>1018</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16">
+        <v>44005.480569563406</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>1019</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17">
+        <v>44005.48089390591</v>
       </c>
     </row>
   </sheetData>
